--- a/0_Planning&Hours.xlsx
+++ b/0_Planning&Hours.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{654E3C3A-9F66-464D-ADFA-B9EEC1C5F940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27DBD8F-1C7F-4B84-BFB4-092F40492E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2436" yWindow="2436" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -14,11 +14,11 @@
   </sheets>
   <definedNames>
     <definedName name="Display_Week">ProjectSchedule!$E$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
     <definedName name="Project_Start">ProjectSchedule!$E$3</definedName>
     <definedName name="task_end" localSheetId="0">ProjectSchedule!$F1</definedName>
     <definedName name="task_progress" localSheetId="0">ProjectSchedule!$D1</definedName>
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1059,25 +1059,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1117,23 +1098,57 @@
     <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
-    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Millares" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Name" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
     <cellStyle name="Project Start" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
     <cellStyle name="Task" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
-    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1163,33 +1178,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="1">
-        <diagonal style="thin">
-          <color auto="1"/>
-        </diagonal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <border>
@@ -1284,21 +1272,33 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="1">
+        <diagonal style="thin">
+          <color auto="1"/>
+        </diagonal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Grey Table" pivot="0" count="1" xr9:uid="{691F0F87-5D4D-4BE0-AF66-D98877C7695C}">
-      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="totalRow" dxfId="13"/>
+      <tableStyleElement type="firstColumn" dxfId="12"/>
+      <tableStyleElement type="lastColumn" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1448,7 +1448,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43B04651-B9EB-4F78-92D3-0E6026461653}" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43B04651-B9EB-4F78-92D3-0E6026461653}" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:F18" xr:uid="{43B04651-B9EB-4F78-92D3-0E6026461653}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1459,11 +1459,11 @@
   </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{32B5F6BC-F2DA-4683-AFB6-F8CD01B72010}" name="Week"/>
-    <tableColumn id="2" xr3:uid="{280C3312-2C46-46E0-BCA3-CB74741767FD}" name="Start Date" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{65E0DFE0-7A91-45B1-A320-8B67F6E78236}" name="End Date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{280C3312-2C46-46E0-BCA3-CB74741767FD}" name="Start Date" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{65E0DFE0-7A91-45B1-A320-8B67F6E78236}" name="End Date" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{58492D59-44F3-41E0-B3AE-E0C7C38CCA5A}" name="Activities"/>
     <tableColumn id="5" xr3:uid="{3FA4BF38-5F0D-41D3-ACB6-535129768E99}" name="Hours Invested"/>
-    <tableColumn id="6" xr3:uid="{E3BE978F-0F2B-4FAA-BCF2-5E3AF5F7370E}" name="Total Hours" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{E3BE978F-0F2B-4FAA-BCF2-5E3AF5F7370E}" name="Total Hours" dataDxfId="0">
       <calculatedColumnFormula>4+2+5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1739,12 +1739,12 @@
   </sheetPr>
   <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="56" customWidth="1"/>
     <col min="2" max="2" width="48.42578125" customWidth="1"/>
@@ -1788,118 +1788,118 @@
       <c r="B3" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="89">
+      <c r="D3" s="103"/>
+      <c r="E3" s="101">
         <f>'Hours Invested'!B2</f>
         <v>44466</v>
       </c>
-      <c r="F3" s="89"/>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="86">
+      <c r="I4" s="98">
         <f>I5</f>
         <v>44466</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="86">
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="98">
         <f>P5</f>
         <v>44473</v>
       </c>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="86">
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="98">
         <f>W5</f>
         <v>44480</v>
       </c>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="86">
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="98">
         <f>AD5</f>
         <v>44487</v>
       </c>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="86">
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="98">
         <f>AK5</f>
         <v>44494</v>
       </c>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="87"/>
-      <c r="AP4" s="87"/>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="86">
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="98">
         <f>AR5</f>
         <v>44501</v>
       </c>
-      <c r="AS4" s="87"/>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="87"/>
-      <c r="AW4" s="87"/>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="86">
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="98">
         <f>AY5</f>
         <v>44508</v>
       </c>
-      <c r="AZ4" s="87"/>
-      <c r="BA4" s="87"/>
-      <c r="BB4" s="87"/>
-      <c r="BC4" s="87"/>
-      <c r="BD4" s="87"/>
-      <c r="BE4" s="88"/>
-      <c r="BF4" s="86">
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="99"/>
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="98">
         <f>BF5</f>
         <v>44515</v>
       </c>
-      <c r="BG4" s="87"/>
-      <c r="BH4" s="87"/>
-      <c r="BI4" s="87"/>
-      <c r="BJ4" s="87"/>
-      <c r="BK4" s="87"/>
-      <c r="BL4" s="88"/>
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="99"/>
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="100"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44466</v>
@@ -2444,7 +2444,7 @@
       <c r="A8" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="88" t="s">
         <v>85</v>
       </c>
       <c r="C8" s="69" t="s">
@@ -2609,7 +2609,7 @@
         <v>74</v>
       </c>
       <c r="D10" s="21">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E10" s="64">
         <f>E9</f>
@@ -2690,7 +2690,7 @@
         <v>74</v>
       </c>
       <c r="D11" s="21">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E11" s="64">
         <f>'Hours Invested'!B2</f>
@@ -2771,7 +2771,7 @@
         <v>74</v>
       </c>
       <c r="D12" s="21">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E12" s="64">
         <f>'Hours Invested'!B3</f>
@@ -2852,7 +2852,7 @@
         <v>74</v>
       </c>
       <c r="D13" s="21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E13" s="64">
         <f>'Hours Invested'!B4</f>
@@ -2928,7 +2928,7 @@
       <c r="A14" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="89" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="71" t="s">
@@ -4312,13 +4312,13 @@
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="56"/>
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="42"/>
@@ -4380,13 +4380,13 @@
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56"/>
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="98"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="42"/>
@@ -4448,13 +4448,13 @@
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="56"/>
-      <c r="B34" s="97" t="s">
+      <c r="B34" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="98"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="42"/>
@@ -4516,13 +4516,13 @@
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56"/>
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="42"/>
@@ -4584,13 +4584,13 @@
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="56"/>
-      <c r="B36" s="97" t="s">
+      <c r="B36" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="98"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="42"/>
@@ -4652,13 +4652,13 @@
     </row>
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="56"/>
-      <c r="B37" s="97" t="s">
+      <c r="B37" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="42"/>
@@ -4720,13 +4720,13 @@
     </row>
     <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="56"/>
-      <c r="B38" s="97" t="s">
+      <c r="B38" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="98"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="42"/>
@@ -4788,13 +4788,13 @@
     </row>
     <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="56"/>
-      <c r="B39" s="97" t="s">
+      <c r="B39" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="98"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="42"/>
@@ -4856,13 +4856,13 @@
     </row>
     <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="56"/>
-      <c r="B40" s="97" t="s">
+      <c r="B40" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="98"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="42"/>
@@ -5078,6 +5078,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -5085,11 +5090,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D42">
     <cfRule type="dataBar" priority="14">
@@ -5106,15 +5106,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL42">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="6" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL42">
-    <cfRule type="expression" dxfId="1" priority="27">
+    <cfRule type="expression" dxfId="5" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="28" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5164,7 +5164,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
@@ -5174,22 +5174,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="84" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5197,10 +5197,10 @@
       <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="90">
+      <c r="B2" s="83">
         <v>44466</v>
       </c>
-      <c r="C2" s="90">
+      <c r="C2" s="83">
         <v>44472</v>
       </c>
       <c r="D2" t="s">
@@ -5209,8 +5209,8 @@
       <c r="E2" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="92">
-        <f t="shared" ref="F2:F18" si="0">4+2+5</f>
+      <c r="F2" s="85">
+        <f t="shared" ref="F2" si="0">4+2+5</f>
         <v>11</v>
       </c>
     </row>
@@ -5218,10 +5218,10 @@
       <c r="A3" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="90">
+      <c r="B3" s="83">
         <v>44473</v>
       </c>
-      <c r="C3" s="90">
+      <c r="C3" s="83">
         <v>44479</v>
       </c>
       <c r="D3" t="s">
@@ -5230,193 +5230,193 @@
       <c r="E3" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="92"/>
+      <c r="F3" s="85"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="90">
+      <c r="B4" s="83">
         <v>44480</v>
       </c>
-      <c r="C4" s="90">
+      <c r="C4" s="83">
         <v>44486</v>
       </c>
-      <c r="F4" s="92"/>
+      <c r="F4" s="85"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="90">
+      <c r="B5" s="83">
         <v>44487</v>
       </c>
-      <c r="C5" s="90">
+      <c r="C5" s="83">
         <v>44493</v>
       </c>
-      <c r="F5" s="92"/>
+      <c r="F5" s="85"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="90">
+      <c r="B6" s="83">
         <v>44494</v>
       </c>
-      <c r="C6" s="90">
+      <c r="C6" s="83">
         <v>44500</v>
       </c>
-      <c r="F6" s="92"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="90">
+      <c r="B7" s="83">
         <v>44501</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="83">
         <v>44507</v>
       </c>
-      <c r="F7" s="92"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="90">
+      <c r="B8" s="83">
         <v>44508</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="83">
         <v>44514</v>
       </c>
-      <c r="F8" s="92"/>
+      <c r="F8" s="85"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="90">
+      <c r="B9" s="83">
         <v>44515</v>
       </c>
-      <c r="C9" s="90">
+      <c r="C9" s="83">
         <v>44521</v>
       </c>
-      <c r="F9" s="92"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="90">
+      <c r="B10" s="83">
         <v>44522</v>
       </c>
-      <c r="C10" s="90">
+      <c r="C10" s="83">
         <v>44528</v>
       </c>
-      <c r="F10" s="92"/>
+      <c r="F10" s="85"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="90">
+      <c r="B11" s="83">
         <v>44529</v>
       </c>
-      <c r="C11" s="90">
+      <c r="C11" s="83">
         <v>44535</v>
       </c>
-      <c r="F11" s="92"/>
+      <c r="F11" s="85"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="90">
+      <c r="B12" s="83">
         <v>44536</v>
       </c>
-      <c r="C12" s="90">
+      <c r="C12" s="83">
         <v>44542</v>
       </c>
-      <c r="F12" s="92"/>
+      <c r="F12" s="85"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="90">
+      <c r="B13" s="83">
         <v>44543</v>
       </c>
-      <c r="C13" s="90">
+      <c r="C13" s="83">
         <v>44549</v>
       </c>
-      <c r="F13" s="92"/>
+      <c r="F13" s="85"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="90">
+      <c r="B14" s="83">
         <v>44550</v>
       </c>
-      <c r="C14" s="90">
+      <c r="C14" s="83">
         <v>44556</v>
       </c>
-      <c r="F14" s="92"/>
+      <c r="F14" s="85"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="90">
+      <c r="B15" s="83">
         <v>44557</v>
       </c>
-      <c r="C15" s="90">
+      <c r="C15" s="83">
         <v>44563</v>
       </c>
-      <c r="F15" s="92"/>
+      <c r="F15" s="85"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="90">
+      <c r="B16" s="83">
         <v>44564</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="83">
         <v>44570</v>
       </c>
-      <c r="F16" s="92"/>
+      <c r="F16" s="85"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="90">
+      <c r="B17" s="83">
         <v>44571</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="83">
         <v>44577</v>
       </c>
-      <c r="F17" s="92"/>
+      <c r="F17" s="85"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="90">
+      <c r="B18" s="83">
         <v>44578</v>
       </c>
-      <c r="C18" s="90">
+      <c r="C18" s="83">
         <v>44584</v>
       </c>
-      <c r="F18" s="92"/>
+      <c r="F18" s="85"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="93" t="s">
+      <c r="E20" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="94">
+      <c r="F20" s="87">
         <f>SUM(Table1[Total Hours])</f>
         <v>11</v>
       </c>
@@ -5437,7 +5437,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="87.140625" style="46" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>

--- a/0_Planning&Hours.xlsx
+++ b/0_Planning&Hours.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27DBD8F-1C7F-4B84-BFB4-092F40492E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311E0A49-AC94-4F3D-9AC2-DCA41D6BA98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
   <si>
     <t>Task 3</t>
   </si>
@@ -322,36 +322,12 @@
     <t>Study ESATAN flight model</t>
   </si>
   <si>
-    <t>Propose initial changes</t>
-  </si>
-  <si>
-    <t>Propose a new experiment</t>
-  </si>
-  <si>
-    <t>Learn about the optimization matrices</t>
-  </si>
-  <si>
-    <t>Implement optimization matrices</t>
-  </si>
-  <si>
     <t>CE2 - Correlating the thermal model of the B2Space 3U cubesat with the available flight data for the TASEC-Lab project</t>
   </si>
   <si>
     <t>1. Preparation. Understanding the model</t>
   </si>
   <si>
-    <t>2. Correlate the test thermal model</t>
-  </si>
-  <si>
-    <t>3. Correlate the flight thermal model</t>
-  </si>
-  <si>
-    <t>4. Review of the model and further changes</t>
-  </si>
-  <si>
-    <t>5. Final work</t>
-  </si>
-  <si>
     <t>Write the introduction</t>
   </si>
   <si>
@@ -374,6 +350,45 @@
   </si>
   <si>
     <t>Prepare presentation</t>
+  </si>
+  <si>
+    <t>2. Analyse and correct the model. Begin with stationary solution at 18 km for COC and HOC cases</t>
+  </si>
+  <si>
+    <t>Create a new model from scratch. B2Space_New</t>
+  </si>
+  <si>
+    <t>Make the COC radiative case work</t>
+  </si>
+  <si>
+    <t>Make the COC analysis case work</t>
+  </si>
+  <si>
+    <t>Make the HOC radiative case work</t>
+  </si>
+  <si>
+    <t>Make the HOC analysis case work</t>
+  </si>
+  <si>
+    <t>Adapt the geometry to better fit the real model</t>
+  </si>
+  <si>
+    <t>Adapt the model properties to better fit the real model</t>
+  </si>
+  <si>
+    <t>4. Correlate the flight thermal model</t>
+  </si>
+  <si>
+    <t>5. Review of the model and further changes</t>
+  </si>
+  <si>
+    <t>6. Final work</t>
+  </si>
+  <si>
+    <t>3. Design and carry out a thermal vacuum test</t>
+  </si>
+  <si>
+    <t>Achieve results that are beliavable</t>
   </si>
 </sst>
 </file>
@@ -559,7 +574,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,6 +668,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,7 +850,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1098,6 +1125,13 @@
     <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1110,13 +1144,30 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="17" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="17" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="18" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="18" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
@@ -1134,21 +1185,6 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1178,6 +1214,21 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1448,7 +1499,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43B04651-B9EB-4F78-92D3-0E6026461653}" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43B04651-B9EB-4F78-92D3-0E6026461653}" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:F18" xr:uid="{43B04651-B9EB-4F78-92D3-0E6026461653}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1459,11 +1510,11 @@
   </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{32B5F6BC-F2DA-4683-AFB6-F8CD01B72010}" name="Week"/>
-    <tableColumn id="2" xr3:uid="{280C3312-2C46-46E0-BCA3-CB74741767FD}" name="Start Date" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{65E0DFE0-7A91-45B1-A320-8B67F6E78236}" name="End Date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{280C3312-2C46-46E0-BCA3-CB74741767FD}" name="Start Date" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{65E0DFE0-7A91-45B1-A320-8B67F6E78236}" name="End Date" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{58492D59-44F3-41E0-B3AE-E0C7C38CCA5A}" name="Activities"/>
     <tableColumn id="5" xr3:uid="{3FA4BF38-5F0D-41D3-ACB6-535129768E99}" name="Hours Invested"/>
-    <tableColumn id="6" xr3:uid="{E3BE978F-0F2B-4FAA-BCF2-5E3AF5F7370E}" name="Total Hours" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{E3BE978F-0F2B-4FAA-BCF2-5E3AF5F7370E}" name="Total Hours" dataDxfId="3">
       <calculatedColumnFormula>4+2+5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1737,17 +1788,17 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL45"/>
+  <dimension ref="A1:BL53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="56" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
@@ -1763,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1788,118 +1839,118 @@
       <c r="B3" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="101">
+      <c r="D3" s="99"/>
+      <c r="E3" s="104">
         <f>'Hours Invested'!B2</f>
         <v>44466</v>
       </c>
-      <c r="F3" s="101"/>
+      <c r="F3" s="104"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="103"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="98">
+      <c r="I4" s="101">
         <f>I5</f>
         <v>44466</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="98">
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="101">
         <f>P5</f>
         <v>44473</v>
       </c>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="98">
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="101">
         <f>W5</f>
         <v>44480</v>
       </c>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="98">
+      <c r="X4" s="102"/>
+      <c r="Y4" s="102"/>
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="102"/>
+      <c r="AB4" s="102"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="101">
         <f>AD5</f>
         <v>44487</v>
       </c>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="98">
+      <c r="AE4" s="102"/>
+      <c r="AF4" s="102"/>
+      <c r="AG4" s="102"/>
+      <c r="AH4" s="102"/>
+      <c r="AI4" s="102"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="101">
         <f>AK5</f>
         <v>44494</v>
       </c>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="98">
+      <c r="AL4" s="102"/>
+      <c r="AM4" s="102"/>
+      <c r="AN4" s="102"/>
+      <c r="AO4" s="102"/>
+      <c r="AP4" s="102"/>
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="101">
         <f>AR5</f>
         <v>44501</v>
       </c>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="99"/>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="100"/>
-      <c r="AY4" s="98">
+      <c r="AS4" s="102"/>
+      <c r="AT4" s="102"/>
+      <c r="AU4" s="102"/>
+      <c r="AV4" s="102"/>
+      <c r="AW4" s="102"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="101">
         <f>AY5</f>
         <v>44508</v>
       </c>
-      <c r="AZ4" s="99"/>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="99"/>
-      <c r="BE4" s="100"/>
-      <c r="BF4" s="98">
+      <c r="AZ4" s="102"/>
+      <c r="BA4" s="102"/>
+      <c r="BB4" s="102"/>
+      <c r="BC4" s="102"/>
+      <c r="BD4" s="102"/>
+      <c r="BE4" s="103"/>
+      <c r="BF4" s="101">
         <f>BF5</f>
         <v>44515</v>
       </c>
-      <c r="BG4" s="99"/>
-      <c r="BH4" s="99"/>
-      <c r="BI4" s="99"/>
-      <c r="BJ4" s="99"/>
-      <c r="BK4" s="99"/>
-      <c r="BL4" s="100"/>
+      <c r="BG4" s="102"/>
+      <c r="BH4" s="102"/>
+      <c r="BI4" s="102"/>
+      <c r="BJ4" s="102"/>
+      <c r="BK4" s="102"/>
+      <c r="BL4" s="103"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44466</v>
@@ -2150,227 +2201,227 @@
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
-        <v>M</v>
+        <v>l</v>
       </c>
       <c r="J6" s="13" t="str">
         <f t="shared" ref="J6:AR6" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
-        <v>T</v>
+        <v>m</v>
       </c>
       <c r="K6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>W</v>
+        <v>m</v>
       </c>
       <c r="L6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>j</v>
       </c>
       <c r="M6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>F</v>
+        <v>v</v>
       </c>
       <c r="N6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="O6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="P6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>M</v>
+        <v>l</v>
       </c>
       <c r="Q6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>m</v>
       </c>
       <c r="R6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>W</v>
+        <v>m</v>
       </c>
       <c r="S6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>j</v>
       </c>
       <c r="T6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>F</v>
+        <v>v</v>
       </c>
       <c r="U6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="V6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="W6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>M</v>
+        <v>l</v>
       </c>
       <c r="X6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>m</v>
       </c>
       <c r="Y6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>W</v>
+        <v>m</v>
       </c>
       <c r="Z6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>j</v>
       </c>
       <c r="AA6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>F</v>
+        <v>v</v>
       </c>
       <c r="AB6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="AC6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="AD6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>M</v>
+        <v>l</v>
       </c>
       <c r="AE6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>m</v>
       </c>
       <c r="AF6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>W</v>
+        <v>m</v>
       </c>
       <c r="AG6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>j</v>
       </c>
       <c r="AH6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>F</v>
+        <v>v</v>
       </c>
       <c r="AI6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="AJ6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="AK6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>M</v>
+        <v>l</v>
       </c>
       <c r="AL6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>m</v>
       </c>
       <c r="AM6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>W</v>
+        <v>m</v>
       </c>
       <c r="AN6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>j</v>
       </c>
       <c r="AO6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>F</v>
+        <v>v</v>
       </c>
       <c r="AP6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="AQ6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="AR6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>M</v>
+        <v>l</v>
       </c>
       <c r="AS6" s="13" t="str">
         <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
-        <v>T</v>
+        <v>m</v>
       </c>
       <c r="AT6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>W</v>
+        <v>m</v>
       </c>
       <c r="AU6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>T</v>
+        <v>j</v>
       </c>
       <c r="AV6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>F</v>
+        <v>v</v>
       </c>
       <c r="AW6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="AX6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="AY6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>M</v>
+        <v>l</v>
       </c>
       <c r="AZ6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>T</v>
+        <v>m</v>
       </c>
       <c r="BA6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>W</v>
+        <v>m</v>
       </c>
       <c r="BB6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>T</v>
+        <v>j</v>
       </c>
       <c r="BC6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>F</v>
+        <v>v</v>
       </c>
       <c r="BD6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="BE6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>S</v>
+        <v>d</v>
       </c>
       <c r="BF6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>M</v>
+        <v>l</v>
       </c>
       <c r="BG6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>T</v>
+        <v>m</v>
       </c>
       <c r="BH6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>W</v>
+        <v>m</v>
       </c>
       <c r="BI6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>T</v>
+        <v>j</v>
       </c>
       <c r="BJ6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>F</v>
+        <v>v</v>
       </c>
       <c r="BK6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="BL6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>S</v>
+        <v>d</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2445,7 +2496,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C8" s="69" t="s">
         <v>74</v>
@@ -2455,7 +2506,7 @@
       <c r="F8" s="20"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H42" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H50" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="42"/>
@@ -2609,7 +2660,7 @@
         <v>74</v>
       </c>
       <c r="D10" s="21">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E10" s="64">
         <f>E9</f>
@@ -2690,7 +2741,7 @@
         <v>74</v>
       </c>
       <c r="D11" s="21">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E11" s="64">
         <f>'Hours Invested'!B2</f>
@@ -2771,20 +2822,20 @@
         <v>74</v>
       </c>
       <c r="D12" s="21">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="E12" s="64">
         <f>'Hours Invested'!B3</f>
         <v>44473</v>
       </c>
       <c r="F12" s="64">
-        <f>'Hours Invested'!C4</f>
-        <v>44486</v>
+        <f>'Hours Invested'!C4-7</f>
+        <v>44479</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
@@ -2852,20 +2903,20 @@
         <v>74</v>
       </c>
       <c r="D13" s="21">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="E13" s="64">
-        <f>'Hours Invested'!B4</f>
-        <v>44480</v>
+        <f>'Hours Invested'!B4-4</f>
+        <v>44476</v>
       </c>
       <c r="F13" s="64">
-        <f>'Hours Invested'!C4</f>
-        <v>44486</v>
+        <f>F12+2</f>
+        <v>44481</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
@@ -2929,7 +2980,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C14" s="71" t="s">
         <v>74</v>
@@ -3002,26 +3053,24 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="57"/>
       <c r="B15" s="79" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C15" s="72" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="65">
-        <f>E13+1</f>
+        <v>44477</v>
+      </c>
+      <c r="F15" s="65">
         <v>44481</v>
-      </c>
-      <c r="F15" s="65">
-        <f>E15+6</f>
-        <v>44487</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
@@ -3083,26 +3132,25 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
       <c r="B16" s="79" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C16" s="72" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="65">
-        <f>E15+2</f>
-        <v>44483</v>
+        <f>F15</f>
+        <v>44481</v>
       </c>
       <c r="F16" s="65">
-        <f>E16+5</f>
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
@@ -3164,26 +3212,25 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56"/>
       <c r="B17" s="79" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C17" s="72" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="25">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E17" s="65">
         <f>F16-2</f>
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="F17" s="65">
-        <f>E17+3</f>
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
@@ -3245,7 +3292,7 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56"/>
       <c r="B18" s="79" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C18" s="72" t="s">
         <v>74</v>
@@ -3254,17 +3301,17 @@
         <v>0</v>
       </c>
       <c r="E18" s="65">
-        <f>F16</f>
-        <v>44488</v>
+        <f>F17</f>
+        <v>44490</v>
       </c>
       <c r="F18" s="65">
-        <f>E18+5</f>
-        <v>44493</v>
+        <f>E18+1</f>
+        <v>44491</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
@@ -3326,7 +3373,7 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56"/>
       <c r="B19" s="79" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C19" s="72" t="s">
         <v>74</v>
@@ -3336,17 +3383,14 @@
       </c>
       <c r="E19" s="65">
         <f>E18</f>
-        <v>44488</v>
+        <v>44490</v>
       </c>
       <c r="F19" s="65">
-        <f>E19+3</f>
+        <f>F18</f>
         <v>44491</v>
       </c>
       <c r="G19" s="17"/>
-      <c r="H19" s="17">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="H19" s="17"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
@@ -3363,7 +3407,7 @@
       <c r="V19" s="42"/>
       <c r="W19" s="42"/>
       <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
+      <c r="Y19" s="43"/>
       <c r="Z19" s="42"/>
       <c r="AA19" s="42"/>
       <c r="AB19" s="42"/>
@@ -3405,21 +3449,26 @@
       <c r="BL19" s="42"/>
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0</v>
+      </c>
+      <c r="E20" s="65">
+        <f>F19+1</f>
+        <v>44492</v>
+      </c>
+      <c r="F20" s="65">
+        <f>E20+7-1</f>
+        <v>44498</v>
+      </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H20" s="17"/>
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
@@ -3436,7 +3485,7 @@
       <c r="V20" s="42"/>
       <c r="W20" s="42"/>
       <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
+      <c r="Y20" s="43"/>
       <c r="Z20" s="42"/>
       <c r="AA20" s="42"/>
       <c r="AB20" s="42"/>
@@ -3479,23 +3528,27 @@
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="56"/>
-      <c r="B21" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="66">
-        <f>E9+15</f>
-        <v>44481</v>
-      </c>
-      <c r="F21" s="66">
-        <f>E21+5</f>
-        <v>44486</v>
+      <c r="B21" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0</v>
+      </c>
+      <c r="E21" s="65">
+        <f>F20-4</f>
+        <v>44494</v>
+      </c>
+      <c r="F21" s="65">
+        <f>E21+6-2</f>
+        <v>44498</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
@@ -3556,24 +3609,24 @@
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="56"/>
-      <c r="B22" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="66">
-        <f>F21+1</f>
-        <v>44487</v>
-      </c>
-      <c r="F22" s="66">
-        <f>E22+4</f>
-        <v>44491</v>
+      <c r="B22" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0</v>
+      </c>
+      <c r="E22" s="65">
+        <v>44502</v>
+      </c>
+      <c r="F22" s="65">
+        <f>E22+2</f>
+        <v>44504</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="17">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
+      <c r="H22" s="17"/>
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
       <c r="K22" s="42"/>
@@ -3633,24 +3686,15 @@
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
-      <c r="B23" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="66">
-        <f>E22+5</f>
-        <v>44492</v>
-      </c>
-      <c r="F23" s="66">
-        <f>E23+5</f>
-        <v>44497</v>
-      </c>
+      <c r="B23" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="109"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="17">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
+      <c r="H23" s="17"/>
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
@@ -3710,24 +3754,13 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56"/>
-      <c r="B24" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="66">
-        <f>F23+1</f>
-        <v>44498</v>
-      </c>
-      <c r="F24" s="66">
-        <f>E24+4</f>
-        <v>44502</v>
-      </c>
+      <c r="B24" s="105"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="17">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
+      <c r="H24" s="17"/>
       <c r="I24" s="42"/>
       <c r="J24" s="42"/>
       <c r="K24" s="42"/>
@@ -3787,24 +3820,13 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="56"/>
-      <c r="B25" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="66">
-        <f>E23</f>
-        <v>44492</v>
-      </c>
-      <c r="F25" s="66">
-        <f>E25+4</f>
-        <v>44496</v>
-      </c>
+      <c r="B25" s="105"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="17">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
+      <c r="H25" s="17"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
       <c r="K25" s="42"/>
@@ -3863,21 +3885,14 @@
       <c r="BL25" s="42"/>
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H26" s="17"/>
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
@@ -3937,22 +3952,13 @@
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56"/>
-      <c r="B27" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="67" t="s">
-        <v>30</v>
-      </c>
+      <c r="B27" s="105"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H27" s="17"/>
       <c r="I27" s="42"/>
       <c r="J27" s="42"/>
       <c r="K27" s="42"/>
@@ -4011,22 +4017,20 @@
       <c r="BL27" s="42"/>
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
-      <c r="B28" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="67" t="s">
-        <v>30</v>
-      </c>
+      <c r="A28" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="17" t="e">
+      <c r="H28" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="42"/>
@@ -4087,21 +4091,23 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="56"/>
-      <c r="B29" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="67" t="s">
-        <v>30</v>
+      <c r="B29" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="74"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="66">
+        <f>E9+15</f>
+        <v>44481</v>
+      </c>
+      <c r="F29" s="66">
+        <f>E29+5</f>
+        <v>44486</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="17" t="e">
+      <c r="H29" s="17">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>6</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
@@ -4162,21 +4168,23 @@
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="56"/>
-      <c r="B30" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="67" t="s">
-        <v>30</v>
+      <c r="B30" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="74"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="66">
+        <f>F29+1</f>
+        <v>44487</v>
+      </c>
+      <c r="F30" s="66">
+        <f>E30+4</f>
+        <v>44491</v>
       </c>
       <c r="G30" s="17"/>
-      <c r="H30" s="17" t="e">
+      <c r="H30" s="17">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>5</v>
       </c>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
@@ -4237,21 +4245,23 @@
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="56"/>
-      <c r="B31" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="67" t="s">
-        <v>30</v>
+      <c r="B31" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="74"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="66">
+        <f>E30+5</f>
+        <v>44492</v>
+      </c>
+      <c r="F31" s="66">
+        <f>E31+5</f>
+        <v>44497</v>
       </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="17" t="e">
+      <c r="H31" s="17">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>6</v>
       </c>
       <c r="I31" s="42"/>
       <c r="J31" s="42"/>
@@ -4312,15 +4322,24 @@
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="56"/>
-      <c r="B32" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
+      <c r="B32" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="74"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="66">
+        <f>F31+1</f>
+        <v>44498</v>
+      </c>
+      <c r="F32" s="66">
+        <f>E32+4</f>
+        <v>44502</v>
+      </c>
       <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="H32" s="17">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="I32" s="42"/>
       <c r="J32" s="42"/>
       <c r="K32" s="42"/>
@@ -4380,15 +4399,24 @@
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56"/>
-      <c r="B33" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
+      <c r="B33" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="74"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="66">
+        <f>E31</f>
+        <v>44492</v>
+      </c>
+      <c r="F33" s="66">
+        <f>E33+4</f>
+        <v>44496</v>
+      </c>
       <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="H33" s="17">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="I33" s="42"/>
       <c r="J33" s="42"/>
       <c r="K33" s="42"/>
@@ -4447,16 +4475,21 @@
       <c r="BL33" s="42"/>
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56"/>
-      <c r="B34" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
+      <c r="A34" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="75"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
+      <c r="H34" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I34" s="42"/>
       <c r="J34" s="42"/>
       <c r="K34" s="42"/>
@@ -4516,15 +4549,22 @@
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56"/>
-      <c r="B35" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
+      <c r="B35" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="76"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="67" t="s">
+        <v>30</v>
+      </c>
       <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="H35" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I35" s="42"/>
       <c r="J35" s="42"/>
       <c r="K35" s="42"/>
@@ -4584,15 +4624,22 @@
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="56"/>
-      <c r="B36" s="90" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
+      <c r="B36" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="76"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="67" t="s">
+        <v>30</v>
+      </c>
       <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
+      <c r="H36" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I36" s="42"/>
       <c r="J36" s="42"/>
       <c r="K36" s="42"/>
@@ -4652,15 +4699,22 @@
     </row>
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="56"/>
-      <c r="B37" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
+      <c r="B37" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="76"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="67" t="s">
+        <v>30</v>
+      </c>
       <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="H37" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
       <c r="K37" s="42"/>
@@ -4720,15 +4774,22 @@
     </row>
     <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="56"/>
-      <c r="B38" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
+      <c r="B38" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="67" t="s">
+        <v>30</v>
+      </c>
       <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="H38" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
       <c r="K38" s="42"/>
@@ -4788,15 +4849,22 @@
     </row>
     <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="56"/>
-      <c r="B39" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
+      <c r="B39" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="76"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="67" t="s">
+        <v>30</v>
+      </c>
       <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="H39" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I39" s="42"/>
       <c r="J39" s="42"/>
       <c r="K39" s="42"/>
@@ -4856,13 +4924,13 @@
     </row>
     <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="56"/>
-      <c r="B40" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
+      <c r="B40" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="94"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="42"/>
@@ -4923,19 +4991,16 @@
       <c r="BL40" s="42"/>
     </row>
     <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="82"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="91"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H41" s="17"/>
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
       <c r="K41" s="42"/>
@@ -4994,95 +5059,637 @@
       <c r="BL41" s="42"/>
     </row>
     <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41" t="str">
+      <c r="A42" s="56"/>
+      <c r="B42" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="91"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="42"/>
+      <c r="Y42" s="42"/>
+      <c r="Z42" s="42"/>
+      <c r="AA42" s="42"/>
+      <c r="AB42" s="42"/>
+      <c r="AC42" s="42"/>
+      <c r="AD42" s="42"/>
+      <c r="AE42" s="42"/>
+      <c r="AF42" s="42"/>
+      <c r="AG42" s="42"/>
+      <c r="AH42" s="42"/>
+      <c r="AI42" s="42"/>
+      <c r="AJ42" s="42"/>
+      <c r="AK42" s="42"/>
+      <c r="AL42" s="42"/>
+      <c r="AM42" s="42"/>
+      <c r="AN42" s="42"/>
+      <c r="AO42" s="42"/>
+      <c r="AP42" s="42"/>
+      <c r="AQ42" s="42"/>
+      <c r="AR42" s="42"/>
+      <c r="AS42" s="42"/>
+      <c r="AT42" s="42"/>
+      <c r="AU42" s="42"/>
+      <c r="AV42" s="42"/>
+      <c r="AW42" s="42"/>
+      <c r="AX42" s="42"/>
+      <c r="AY42" s="42"/>
+      <c r="AZ42" s="42"/>
+      <c r="BA42" s="42"/>
+      <c r="BB42" s="42"/>
+      <c r="BC42" s="42"/>
+      <c r="BD42" s="42"/>
+      <c r="BE42" s="42"/>
+      <c r="BF42" s="42"/>
+      <c r="BG42" s="42"/>
+      <c r="BH42" s="42"/>
+      <c r="BI42" s="42"/>
+      <c r="BJ42" s="42"/>
+      <c r="BK42" s="42"/>
+      <c r="BL42" s="42"/>
+    </row>
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="56"/>
+      <c r="B43" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="91"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="42"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="42"/>
+      <c r="Z43" s="42"/>
+      <c r="AA43" s="42"/>
+      <c r="AB43" s="42"/>
+      <c r="AC43" s="42"/>
+      <c r="AD43" s="42"/>
+      <c r="AE43" s="42"/>
+      <c r="AF43" s="42"/>
+      <c r="AG43" s="42"/>
+      <c r="AH43" s="42"/>
+      <c r="AI43" s="42"/>
+      <c r="AJ43" s="42"/>
+      <c r="AK43" s="42"/>
+      <c r="AL43" s="42"/>
+      <c r="AM43" s="42"/>
+      <c r="AN43" s="42"/>
+      <c r="AO43" s="42"/>
+      <c r="AP43" s="42"/>
+      <c r="AQ43" s="42"/>
+      <c r="AR43" s="42"/>
+      <c r="AS43" s="42"/>
+      <c r="AT43" s="42"/>
+      <c r="AU43" s="42"/>
+      <c r="AV43" s="42"/>
+      <c r="AW43" s="42"/>
+      <c r="AX43" s="42"/>
+      <c r="AY43" s="42"/>
+      <c r="AZ43" s="42"/>
+      <c r="BA43" s="42"/>
+      <c r="BB43" s="42"/>
+      <c r="BC43" s="42"/>
+      <c r="BD43" s="42"/>
+      <c r="BE43" s="42"/>
+      <c r="BF43" s="42"/>
+      <c r="BG43" s="42"/>
+      <c r="BH43" s="42"/>
+      <c r="BI43" s="42"/>
+      <c r="BJ43" s="42"/>
+      <c r="BK43" s="42"/>
+      <c r="BL43" s="42"/>
+    </row>
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="56"/>
+      <c r="B44" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="91"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
+      <c r="AA44" s="42"/>
+      <c r="AB44" s="42"/>
+      <c r="AC44" s="42"/>
+      <c r="AD44" s="42"/>
+      <c r="AE44" s="42"/>
+      <c r="AF44" s="42"/>
+      <c r="AG44" s="42"/>
+      <c r="AH44" s="42"/>
+      <c r="AI44" s="42"/>
+      <c r="AJ44" s="42"/>
+      <c r="AK44" s="42"/>
+      <c r="AL44" s="42"/>
+      <c r="AM44" s="42"/>
+      <c r="AN44" s="42"/>
+      <c r="AO44" s="42"/>
+      <c r="AP44" s="42"/>
+      <c r="AQ44" s="42"/>
+      <c r="AR44" s="42"/>
+      <c r="AS44" s="42"/>
+      <c r="AT44" s="42"/>
+      <c r="AU44" s="42"/>
+      <c r="AV44" s="42"/>
+      <c r="AW44" s="42"/>
+      <c r="AX44" s="42"/>
+      <c r="AY44" s="42"/>
+      <c r="AZ44" s="42"/>
+      <c r="BA44" s="42"/>
+      <c r="BB44" s="42"/>
+      <c r="BC44" s="42"/>
+      <c r="BD44" s="42"/>
+      <c r="BE44" s="42"/>
+      <c r="BF44" s="42"/>
+      <c r="BG44" s="42"/>
+      <c r="BH44" s="42"/>
+      <c r="BI44" s="42"/>
+      <c r="BJ44" s="42"/>
+      <c r="BK44" s="42"/>
+      <c r="BL44" s="42"/>
+    </row>
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="56"/>
+      <c r="B45" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="91"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="42"/>
+      <c r="AA45" s="42"/>
+      <c r="AB45" s="42"/>
+      <c r="AC45" s="42"/>
+      <c r="AD45" s="42"/>
+      <c r="AE45" s="42"/>
+      <c r="AF45" s="42"/>
+      <c r="AG45" s="42"/>
+      <c r="AH45" s="42"/>
+      <c r="AI45" s="42"/>
+      <c r="AJ45" s="42"/>
+      <c r="AK45" s="42"/>
+      <c r="AL45" s="42"/>
+      <c r="AM45" s="42"/>
+      <c r="AN45" s="42"/>
+      <c r="AO45" s="42"/>
+      <c r="AP45" s="42"/>
+      <c r="AQ45" s="42"/>
+      <c r="AR45" s="42"/>
+      <c r="AS45" s="42"/>
+      <c r="AT45" s="42"/>
+      <c r="AU45" s="42"/>
+      <c r="AV45" s="42"/>
+      <c r="AW45" s="42"/>
+      <c r="AX45" s="42"/>
+      <c r="AY45" s="42"/>
+      <c r="AZ45" s="42"/>
+      <c r="BA45" s="42"/>
+      <c r="BB45" s="42"/>
+      <c r="BC45" s="42"/>
+      <c r="BD45" s="42"/>
+      <c r="BE45" s="42"/>
+      <c r="BF45" s="42"/>
+      <c r="BG45" s="42"/>
+      <c r="BH45" s="42"/>
+      <c r="BI45" s="42"/>
+      <c r="BJ45" s="42"/>
+      <c r="BK45" s="42"/>
+      <c r="BL45" s="42"/>
+    </row>
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="56"/>
+      <c r="B46" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="91"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="42"/>
+      <c r="AA46" s="42"/>
+      <c r="AB46" s="42"/>
+      <c r="AC46" s="42"/>
+      <c r="AD46" s="42"/>
+      <c r="AE46" s="42"/>
+      <c r="AF46" s="42"/>
+      <c r="AG46" s="42"/>
+      <c r="AH46" s="42"/>
+      <c r="AI46" s="42"/>
+      <c r="AJ46" s="42"/>
+      <c r="AK46" s="42"/>
+      <c r="AL46" s="42"/>
+      <c r="AM46" s="42"/>
+      <c r="AN46" s="42"/>
+      <c r="AO46" s="42"/>
+      <c r="AP46" s="42"/>
+      <c r="AQ46" s="42"/>
+      <c r="AR46" s="42"/>
+      <c r="AS46" s="42"/>
+      <c r="AT46" s="42"/>
+      <c r="AU46" s="42"/>
+      <c r="AV46" s="42"/>
+      <c r="AW46" s="42"/>
+      <c r="AX46" s="42"/>
+      <c r="AY46" s="42"/>
+      <c r="AZ46" s="42"/>
+      <c r="BA46" s="42"/>
+      <c r="BB46" s="42"/>
+      <c r="BC46" s="42"/>
+      <c r="BD46" s="42"/>
+      <c r="BE46" s="42"/>
+      <c r="BF46" s="42"/>
+      <c r="BG46" s="42"/>
+      <c r="BH46" s="42"/>
+      <c r="BI46" s="42"/>
+      <c r="BJ46" s="42"/>
+      <c r="BK46" s="42"/>
+      <c r="BL46" s="42"/>
+    </row>
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="56"/>
+      <c r="B47" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="91"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="42"/>
+      <c r="AB47" s="42"/>
+      <c r="AC47" s="42"/>
+      <c r="AD47" s="42"/>
+      <c r="AE47" s="42"/>
+      <c r="AF47" s="42"/>
+      <c r="AG47" s="42"/>
+      <c r="AH47" s="42"/>
+      <c r="AI47" s="42"/>
+      <c r="AJ47" s="42"/>
+      <c r="AK47" s="42"/>
+      <c r="AL47" s="42"/>
+      <c r="AM47" s="42"/>
+      <c r="AN47" s="42"/>
+      <c r="AO47" s="42"/>
+      <c r="AP47" s="42"/>
+      <c r="AQ47" s="42"/>
+      <c r="AR47" s="42"/>
+      <c r="AS47" s="42"/>
+      <c r="AT47" s="42"/>
+      <c r="AU47" s="42"/>
+      <c r="AV47" s="42"/>
+      <c r="AW47" s="42"/>
+      <c r="AX47" s="42"/>
+      <c r="AY47" s="42"/>
+      <c r="AZ47" s="42"/>
+      <c r="BA47" s="42"/>
+      <c r="BB47" s="42"/>
+      <c r="BC47" s="42"/>
+      <c r="BD47" s="42"/>
+      <c r="BE47" s="42"/>
+      <c r="BF47" s="42"/>
+      <c r="BG47" s="42"/>
+      <c r="BH47" s="42"/>
+      <c r="BI47" s="42"/>
+      <c r="BJ47" s="42"/>
+      <c r="BK47" s="42"/>
+      <c r="BL47" s="42"/>
+    </row>
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="56"/>
+      <c r="B48" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="91"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="42"/>
+      <c r="W48" s="42"/>
+      <c r="X48" s="42"/>
+      <c r="Y48" s="42"/>
+      <c r="Z48" s="42"/>
+      <c r="AA48" s="42"/>
+      <c r="AB48" s="42"/>
+      <c r="AC48" s="42"/>
+      <c r="AD48" s="42"/>
+      <c r="AE48" s="42"/>
+      <c r="AF48" s="42"/>
+      <c r="AG48" s="42"/>
+      <c r="AH48" s="42"/>
+      <c r="AI48" s="42"/>
+      <c r="AJ48" s="42"/>
+      <c r="AK48" s="42"/>
+      <c r="AL48" s="42"/>
+      <c r="AM48" s="42"/>
+      <c r="AN48" s="42"/>
+      <c r="AO48" s="42"/>
+      <c r="AP48" s="42"/>
+      <c r="AQ48" s="42"/>
+      <c r="AR48" s="42"/>
+      <c r="AS48" s="42"/>
+      <c r="AT48" s="42"/>
+      <c r="AU48" s="42"/>
+      <c r="AV48" s="42"/>
+      <c r="AW48" s="42"/>
+      <c r="AX48" s="42"/>
+      <c r="AY48" s="42"/>
+      <c r="AZ48" s="42"/>
+      <c r="BA48" s="42"/>
+      <c r="BB48" s="42"/>
+      <c r="BC48" s="42"/>
+      <c r="BD48" s="42"/>
+      <c r="BE48" s="42"/>
+      <c r="BF48" s="42"/>
+      <c r="BG48" s="42"/>
+      <c r="BH48" s="42"/>
+      <c r="BI48" s="42"/>
+      <c r="BJ48" s="42"/>
+      <c r="BK48" s="42"/>
+      <c r="BL48" s="42"/>
+    </row>
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="82"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="44"/>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="44"/>
-      <c r="Z42" s="44"/>
-      <c r="AA42" s="44"/>
-      <c r="AB42" s="44"/>
-      <c r="AC42" s="44"/>
-      <c r="AD42" s="44"/>
-      <c r="AE42" s="44"/>
-      <c r="AF42" s="44"/>
-      <c r="AG42" s="44"/>
-      <c r="AH42" s="44"/>
-      <c r="AI42" s="44"/>
-      <c r="AJ42" s="44"/>
-      <c r="AK42" s="44"/>
-      <c r="AL42" s="44"/>
-      <c r="AM42" s="44"/>
-      <c r="AN42" s="44"/>
-      <c r="AO42" s="44"/>
-      <c r="AP42" s="44"/>
-      <c r="AQ42" s="44"/>
-      <c r="AR42" s="44"/>
-      <c r="AS42" s="44"/>
-      <c r="AT42" s="44"/>
-      <c r="AU42" s="44"/>
-      <c r="AV42" s="44"/>
-      <c r="AW42" s="44"/>
-      <c r="AX42" s="44"/>
-      <c r="AY42" s="44"/>
-      <c r="AZ42" s="44"/>
-      <c r="BA42" s="44"/>
-      <c r="BB42" s="44"/>
-      <c r="BC42" s="44"/>
-      <c r="BD42" s="44"/>
-      <c r="BE42" s="44"/>
-      <c r="BF42" s="44"/>
-      <c r="BG42" s="44"/>
-      <c r="BH42" s="44"/>
-      <c r="BI42" s="44"/>
-      <c r="BJ42" s="44"/>
-      <c r="BK42" s="44"/>
-      <c r="BL42" s="44"/>
-    </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="14"/>
-      <c r="F44" s="58"/>
-    </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="15"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42"/>
+      <c r="Y49" s="42"/>
+      <c r="Z49" s="42"/>
+      <c r="AA49" s="42"/>
+      <c r="AB49" s="42"/>
+      <c r="AC49" s="42"/>
+      <c r="AD49" s="42"/>
+      <c r="AE49" s="42"/>
+      <c r="AF49" s="42"/>
+      <c r="AG49" s="42"/>
+      <c r="AH49" s="42"/>
+      <c r="AI49" s="42"/>
+      <c r="AJ49" s="42"/>
+      <c r="AK49" s="42"/>
+      <c r="AL49" s="42"/>
+      <c r="AM49" s="42"/>
+      <c r="AN49" s="42"/>
+      <c r="AO49" s="42"/>
+      <c r="AP49" s="42"/>
+      <c r="AQ49" s="42"/>
+      <c r="AR49" s="42"/>
+      <c r="AS49" s="42"/>
+      <c r="AT49" s="42"/>
+      <c r="AU49" s="42"/>
+      <c r="AV49" s="42"/>
+      <c r="AW49" s="42"/>
+      <c r="AX49" s="42"/>
+      <c r="AY49" s="42"/>
+      <c r="AZ49" s="42"/>
+      <c r="BA49" s="42"/>
+      <c r="BB49" s="42"/>
+      <c r="BC49" s="42"/>
+      <c r="BD49" s="42"/>
+      <c r="BE49" s="42"/>
+      <c r="BF49" s="42"/>
+      <c r="BG49" s="42"/>
+      <c r="BH49" s="42"/>
+      <c r="BI49" s="42"/>
+      <c r="BJ49" s="42"/>
+      <c r="BK49" s="42"/>
+      <c r="BL49" s="42"/>
+    </row>
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="37"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="44"/>
+      <c r="AA50" s="44"/>
+      <c r="AB50" s="44"/>
+      <c r="AC50" s="44"/>
+      <c r="AD50" s="44"/>
+      <c r="AE50" s="44"/>
+      <c r="AF50" s="44"/>
+      <c r="AG50" s="44"/>
+      <c r="AH50" s="44"/>
+      <c r="AI50" s="44"/>
+      <c r="AJ50" s="44"/>
+      <c r="AK50" s="44"/>
+      <c r="AL50" s="44"/>
+      <c r="AM50" s="44"/>
+      <c r="AN50" s="44"/>
+      <c r="AO50" s="44"/>
+      <c r="AP50" s="44"/>
+      <c r="AQ50" s="44"/>
+      <c r="AR50" s="44"/>
+      <c r="AS50" s="44"/>
+      <c r="AT50" s="44"/>
+      <c r="AU50" s="44"/>
+      <c r="AV50" s="44"/>
+      <c r="AW50" s="44"/>
+      <c r="AX50" s="44"/>
+      <c r="AY50" s="44"/>
+      <c r="AZ50" s="44"/>
+      <c r="BA50" s="44"/>
+      <c r="BB50" s="44"/>
+      <c r="BC50" s="44"/>
+      <c r="BD50" s="44"/>
+      <c r="BE50" s="44"/>
+      <c r="BF50" s="44"/>
+      <c r="BG50" s="44"/>
+      <c r="BH50" s="44"/>
+      <c r="BI50" s="44"/>
+      <c r="BJ50" s="44"/>
+      <c r="BK50" s="44"/>
+      <c r="BL50" s="44"/>
+    </row>
+    <row r="51" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="14"/>
+      <c r="F52" s="58"/>
+    </row>
+    <row r="53" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -5090,9 +5697,14 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D42">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="D7:D18 D21 D23:D50">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5105,17 +5717,59 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL42">
-    <cfRule type="expression" dxfId="6" priority="33">
+  <conditionalFormatting sqref="I5:BL50">
+    <cfRule type="expression" dxfId="2" priority="36">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL42">
-    <cfRule type="expression" dxfId="5" priority="27">
+  <conditionalFormatting sqref="I7:BL50">
+    <cfRule type="expression" dxfId="1" priority="30">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="31" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7A88492C-137E-47C7-9C36-E45459A23485}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{07668138-D3ED-4545-B563-504778920531}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0F1B10FE-319D-4528-AC93-C5E207C76C9B}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5130,7 +5784,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F22:F23 E23" formula="1"/>
+    <ignoredError sqref="F30:F31 E31" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5148,7 +5802,52 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D42</xm:sqref>
+          <xm:sqref>D7:D18 D21 D23:D50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7A88492C-137E-47C7-9C36-E45459A23485}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{07668138-D3ED-4545-B563-504778920531}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0F1B10FE-319D-4528-AC93-C5E207C76C9B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/0_Planning&Hours.xlsx
+++ b/0_Planning&Hours.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311E0A49-AC94-4F3D-9AC2-DCA41D6BA98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25184E6E-0F4D-476C-BB32-CAB6E93264AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -14,11 +14,11 @@
   </sheets>
   <definedNames>
     <definedName name="Display_Week">ProjectSchedule!$E$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
     <definedName name="Project_Start">ProjectSchedule!$E$3</definedName>
     <definedName name="task_end" localSheetId="0">ProjectSchedule!$F1</definedName>
     <definedName name="task_progress" localSheetId="0">ProjectSchedule!$D1</definedName>
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
   <si>
     <t>Task 3</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Enter Company Name in cell B2.</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>Sample phase title block</t>
@@ -376,19 +373,31 @@
     <t>Adapt the model properties to better fit the real model</t>
   </si>
   <si>
-    <t>4. Correlate the flight thermal model</t>
-  </si>
-  <si>
-    <t>5. Review of the model and further changes</t>
-  </si>
-  <si>
     <t>6. Final work</t>
   </si>
   <si>
-    <t>3. Design and carry out a thermal vacuum test</t>
-  </si>
-  <si>
     <t>Achieve results that are beliavable</t>
+  </si>
+  <si>
+    <t>5. Correlate the flight thermal model</t>
+  </si>
+  <si>
+    <t>4. Correlate the TVT thermal model</t>
+  </si>
+  <si>
+    <t>3. Design and carry out a thermal vacuum test (TVT)</t>
+  </si>
+  <si>
+    <t>Design the TVT</t>
+  </si>
+  <si>
+    <t>Submit the document</t>
+  </si>
+  <si>
+    <t>Prepare the CubeSat for the TVT</t>
+  </si>
+  <si>
+    <t>Carry out the TVT</t>
   </si>
 </sst>
 </file>
@@ -1125,6 +1134,42 @@
     <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="17" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="17" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="18" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="18" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1132,59 +1177,38 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="17" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="17" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="18" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="18" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
+    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
-    <cellStyle name="Encabezado 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Millares" xfId="4" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Name" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Project Start" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
     <cellStyle name="Task" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
-    <cellStyle name="Título" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1214,21 +1238,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1499,7 +1508,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43B04651-B9EB-4F78-92D3-0E6026461653}" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43B04651-B9EB-4F78-92D3-0E6026461653}" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:F18" xr:uid="{43B04651-B9EB-4F78-92D3-0E6026461653}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1510,11 +1519,11 @@
   </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{32B5F6BC-F2DA-4683-AFB6-F8CD01B72010}" name="Week"/>
-    <tableColumn id="2" xr3:uid="{280C3312-2C46-46E0-BCA3-CB74741767FD}" name="Start Date" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{65E0DFE0-7A91-45B1-A320-8B67F6E78236}" name="End Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{280C3312-2C46-46E0-BCA3-CB74741767FD}" name="Start Date" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{65E0DFE0-7A91-45B1-A320-8B67F6E78236}" name="End Date" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{58492D59-44F3-41E0-B3AE-E0C7C38CCA5A}" name="Activities"/>
     <tableColumn id="5" xr3:uid="{3FA4BF38-5F0D-41D3-ACB6-535129768E99}" name="Hours Invested"/>
-    <tableColumn id="6" xr3:uid="{E3BE978F-0F2B-4FAA-BCF2-5E3AF5F7370E}" name="Total Hours" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{E3BE978F-0F2B-4FAA-BCF2-5E3AF5F7370E}" name="Total Hours" dataDxfId="0">
       <calculatedColumnFormula>4+2+5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1791,30 +1800,30 @@
   <dimension ref="A1:BL53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="56" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="56" customWidth="1"/>
     <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5546875" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1823,362 +1832,362 @@
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="59"/>
+    </row>
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="59"/>
-    </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="104">
+      <c r="D3" s="111"/>
+      <c r="E3" s="109">
         <f>'Hours Invested'!B2</f>
         <v>44466</v>
       </c>
-      <c r="F3" s="104"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="109"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="111"/>
+      <c r="E4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="106">
+        <f>I5</f>
+        <v>44494</v>
+      </c>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="106">
+        <f>P5</f>
+        <v>44501</v>
+      </c>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="106">
+        <f>W5</f>
+        <v>44508</v>
+      </c>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="106">
+        <f>AD5</f>
+        <v>44515</v>
+      </c>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="106">
+        <f>AK5</f>
+        <v>44522</v>
+      </c>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="108"/>
+      <c r="AR4" s="106">
+        <f>AR5</f>
+        <v>44529</v>
+      </c>
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="106">
+        <f>AY5</f>
+        <v>44536</v>
+      </c>
+      <c r="AZ4" s="107"/>
+      <c r="BA4" s="107"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="107"/>
+      <c r="BD4" s="107"/>
+      <c r="BE4" s="108"/>
+      <c r="BF4" s="106">
+        <f>BF5</f>
+        <v>44543</v>
+      </c>
+      <c r="BG4" s="107"/>
+      <c r="BH4" s="107"/>
+      <c r="BI4" s="107"/>
+      <c r="BJ4" s="107"/>
+      <c r="BK4" s="107"/>
+      <c r="BL4" s="108"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="101">
-        <f>I5</f>
-        <v>44466</v>
-      </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="101">
-        <f>P5</f>
-        <v>44473</v>
-      </c>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="102"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="101">
-        <f>W5</f>
-        <v>44480</v>
-      </c>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="102"/>
-      <c r="Z4" s="102"/>
-      <c r="AA4" s="102"/>
-      <c r="AB4" s="102"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="101">
-        <f>AD5</f>
-        <v>44487</v>
-      </c>
-      <c r="AE4" s="102"/>
-      <c r="AF4" s="102"/>
-      <c r="AG4" s="102"/>
-      <c r="AH4" s="102"/>
-      <c r="AI4" s="102"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="101">
-        <f>AK5</f>
-        <v>44494</v>
-      </c>
-      <c r="AL4" s="102"/>
-      <c r="AM4" s="102"/>
-      <c r="AN4" s="102"/>
-      <c r="AO4" s="102"/>
-      <c r="AP4" s="102"/>
-      <c r="AQ4" s="103"/>
-      <c r="AR4" s="101">
-        <f>AR5</f>
-        <v>44501</v>
-      </c>
-      <c r="AS4" s="102"/>
-      <c r="AT4" s="102"/>
-      <c r="AU4" s="102"/>
-      <c r="AV4" s="102"/>
-      <c r="AW4" s="102"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="101">
-        <f>AY5</f>
-        <v>44508</v>
-      </c>
-      <c r="AZ4" s="102"/>
-      <c r="BA4" s="102"/>
-      <c r="BB4" s="102"/>
-      <c r="BC4" s="102"/>
-      <c r="BD4" s="102"/>
-      <c r="BE4" s="103"/>
-      <c r="BF4" s="101">
-        <f>BF5</f>
-        <v>44515</v>
-      </c>
-      <c r="BG4" s="102"/>
-      <c r="BH4" s="102"/>
-      <c r="BI4" s="102"/>
-      <c r="BJ4" s="102"/>
-      <c r="BK4" s="102"/>
-      <c r="BL4" s="103"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44466</v>
+        <v>44494</v>
       </c>
       <c r="J5" s="10">
         <f>I5+1</f>
-        <v>44467</v>
+        <v>44495</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44468</v>
+        <v>44496</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="0"/>
-        <v>44469</v>
+        <v>44497</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="0"/>
-        <v>44470</v>
+        <v>44498</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="0"/>
-        <v>44471</v>
+        <v>44499</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="0"/>
-        <v>44472</v>
+        <v>44500</v>
       </c>
       <c r="P5" s="11">
         <f>O5+1</f>
-        <v>44473</v>
+        <v>44501</v>
       </c>
       <c r="Q5" s="10">
         <f>P5+1</f>
-        <v>44474</v>
+        <v>44502</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" si="0"/>
-        <v>44475</v>
+        <v>44503</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="0"/>
-        <v>44476</v>
+        <v>44504</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" si="0"/>
-        <v>44477</v>
+        <v>44505</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" si="0"/>
-        <v>44478</v>
+        <v>44506</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" si="0"/>
-        <v>44479</v>
+        <v>44507</v>
       </c>
       <c r="W5" s="11">
         <f>V5+1</f>
-        <v>44480</v>
+        <v>44508</v>
       </c>
       <c r="X5" s="10">
         <f>W5+1</f>
-        <v>44481</v>
+        <v>44509</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" si="0"/>
-        <v>44482</v>
+        <v>44510</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" si="0"/>
-        <v>44483</v>
+        <v>44511</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" si="0"/>
-        <v>44484</v>
+        <v>44512</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" si="0"/>
-        <v>44485</v>
+        <v>44513</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="0"/>
-        <v>44486</v>
+        <v>44514</v>
       </c>
       <c r="AD5" s="11">
         <f>AC5+1</f>
-        <v>44487</v>
+        <v>44515</v>
       </c>
       <c r="AE5" s="10">
         <f>AD5+1</f>
-        <v>44488</v>
+        <v>44516</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" si="0"/>
-        <v>44489</v>
+        <v>44517</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" si="0"/>
-        <v>44490</v>
+        <v>44518</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" si="0"/>
-        <v>44491</v>
+        <v>44519</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" si="0"/>
-        <v>44492</v>
+        <v>44520</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" si="0"/>
-        <v>44493</v>
+        <v>44521</v>
       </c>
       <c r="AK5" s="11">
         <f>AJ5+1</f>
-        <v>44494</v>
+        <v>44522</v>
       </c>
       <c r="AL5" s="10">
         <f>AK5+1</f>
-        <v>44495</v>
+        <v>44523</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" si="0"/>
-        <v>44496</v>
+        <v>44524</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" si="0"/>
-        <v>44497</v>
+        <v>44525</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" si="0"/>
-        <v>44498</v>
+        <v>44526</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" si="0"/>
-        <v>44499</v>
+        <v>44527</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" si="0"/>
-        <v>44500</v>
+        <v>44528</v>
       </c>
       <c r="AR5" s="11">
         <f>AQ5+1</f>
-        <v>44501</v>
+        <v>44529</v>
       </c>
       <c r="AS5" s="10">
         <f>AR5+1</f>
-        <v>44502</v>
+        <v>44530</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" si="0"/>
-        <v>44503</v>
+        <v>44531</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" si="0"/>
-        <v>44504</v>
+        <v>44532</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" si="0"/>
-        <v>44505</v>
+        <v>44533</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" si="0"/>
-        <v>44506</v>
+        <v>44534</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" si="0"/>
-        <v>44507</v>
+        <v>44535</v>
       </c>
       <c r="AY5" s="11">
         <f>AX5+1</f>
-        <v>44508</v>
+        <v>44536</v>
       </c>
       <c r="AZ5" s="10">
         <f>AY5+1</f>
-        <v>44509</v>
+        <v>44537</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44510</v>
+        <v>44538</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" si="1"/>
-        <v>44511</v>
+        <v>44539</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" si="1"/>
-        <v>44512</v>
+        <v>44540</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" si="1"/>
-        <v>44513</v>
+        <v>44541</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" si="1"/>
-        <v>44514</v>
+        <v>44542</v>
       </c>
       <c r="BF5" s="11">
         <f>BE5+1</f>
-        <v>44515</v>
+        <v>44543</v>
       </c>
       <c r="BG5" s="10">
         <f>BF5+1</f>
-        <v>44516</v>
+        <v>44544</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44517</v>
+        <v>44545</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" si="2"/>
-        <v>44518</v>
+        <v>44546</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" si="2"/>
-        <v>44519</v>
+        <v>44547</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" si="2"/>
-        <v>44520</v>
+        <v>44548</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" si="2"/>
-        <v>44521</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>14</v>
@@ -2201,232 +2210,232 @@
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="J6" s="13" t="str">
         <f t="shared" ref="J6:AR6" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="K6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="L6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="M6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="N6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="O6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="P6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="Q6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="R6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="S6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="T6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="U6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="V6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="W6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="X6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="Y6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="Z6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="AA6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="AB6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="AC6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="AD6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="AE6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="AF6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="AG6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="AH6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="AI6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="AJ6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="AK6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="AL6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="AM6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="AN6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="AO6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="AP6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="AQ6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="AR6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="AS6" s="13" t="str">
         <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="AT6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="AU6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="AV6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="AW6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="AX6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="AY6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="AZ6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="BA6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="BB6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="BC6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="BD6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="BE6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="BF6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="BG6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="BH6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="BI6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="BJ6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="BK6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="BL6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>d</v>
-      </c>
-    </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>S</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="60"/>
       <c r="E7"/>
@@ -2491,15 +2500,15 @@
       <c r="BK7" s="42"/>
       <c r="BL7" s="42"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19"/>
@@ -2566,15 +2575,15 @@
       <c r="BK8" s="42"/>
       <c r="BL8" s="42"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="21">
         <v>1</v>
@@ -2649,15 +2658,15 @@
       <c r="BK9" s="42"/>
       <c r="BL9" s="42"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="21">
         <v>1</v>
@@ -2732,13 +2741,13 @@
       <c r="BK10" s="42"/>
       <c r="BL10" s="42"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
       <c r="B11" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="21">
         <v>1</v>
@@ -2813,13 +2822,13 @@
       <c r="BK11" s="42"/>
       <c r="BL11" s="42"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="56"/>
       <c r="B12" s="78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="21">
         <v>1</v>
@@ -2894,13 +2903,13 @@
       <c r="BK12" s="42"/>
       <c r="BL12" s="42"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="56"/>
       <c r="B13" s="78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="21">
         <v>1</v>
@@ -2975,15 +2984,15 @@
       <c r="BK13" s="42"/>
       <c r="BL13" s="42"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
@@ -3050,13 +3059,13 @@
       <c r="BK14" s="42"/>
       <c r="BL14" s="42"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="57"/>
       <c r="B15" s="79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="25">
         <v>1</v>
@@ -3129,13 +3138,13 @@
       <c r="BK15" s="42"/>
       <c r="BL15" s="42"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="25">
         <v>1</v>
@@ -3209,28 +3218,28 @@
       <c r="BK16" s="42"/>
       <c r="BL16" s="42"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="56"/>
       <c r="B17" s="79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="25">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="65">
         <f>F16-2</f>
         <v>44485</v>
       </c>
       <c r="F17" s="65">
-        <v>44490</v>
+        <v>44496</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
@@ -3289,29 +3298,29 @@
       <c r="BK17" s="42"/>
       <c r="BL17" s="42"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="56"/>
       <c r="B18" s="79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="65">
         <f>F17</f>
-        <v>44490</v>
+        <v>44496</v>
       </c>
       <c r="F18" s="65">
-        <f>E18+1</f>
-        <v>44491</v>
+        <f>E18</f>
+        <v>44496</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
@@ -3370,24 +3379,24 @@
       <c r="BK18" s="42"/>
       <c r="BL18" s="42"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="56"/>
       <c r="B19" s="79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="65">
         <f>E18</f>
-        <v>44490</v>
+        <v>44496</v>
       </c>
       <c r="F19" s="65">
         <f>F18</f>
-        <v>44491</v>
+        <v>44496</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -3448,24 +3457,24 @@
       <c r="BK19" s="42"/>
       <c r="BL19" s="42"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="56"/>
       <c r="B20" s="79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="25">
         <v>0</v>
       </c>
       <c r="E20" s="65">
         <f>F19+1</f>
-        <v>44492</v>
+        <v>44497</v>
       </c>
       <c r="F20" s="65">
-        <f>E20+7-1</f>
-        <v>44498</v>
+        <f>E20+9</f>
+        <v>44506</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -3526,29 +3535,29 @@
       <c r="BK20" s="42"/>
       <c r="BL20" s="42"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="56"/>
       <c r="B21" s="79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="25">
         <v>0</v>
       </c>
       <c r="E21" s="65">
-        <f>F20-4</f>
-        <v>44494</v>
+        <f>F20-2</f>
+        <v>44504</v>
       </c>
       <c r="F21" s="65">
-        <f>E21+6-2</f>
-        <v>44498</v>
+        <f>E21+9</f>
+        <v>44513</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
@@ -3607,23 +3616,24 @@
       <c r="BK21" s="42"/>
       <c r="BL21" s="42"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="56"/>
       <c r="B22" s="79" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="25">
         <v>0</v>
       </c>
       <c r="E22" s="65">
-        <v>44502</v>
+        <f>F21</f>
+        <v>44513</v>
       </c>
       <c r="F22" s="65">
-        <f>E22+2</f>
-        <v>44504</v>
+        <f>E22+3</f>
+        <v>44516</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
@@ -3684,15 +3694,15 @@
       <c r="BK22" s="42"/>
       <c r="BL22" s="42"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="56"/>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="42"/>
@@ -3752,13 +3762,25 @@
       <c r="BK23" s="42"/>
       <c r="BL23" s="42"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="56"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
+      <c r="B24" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="100">
+        <v>0</v>
+      </c>
+      <c r="E24" s="101">
+        <f>F22+1</f>
+        <v>44517</v>
+      </c>
+      <c r="F24" s="101">
+        <f>E24+12</f>
+        <v>44529</v>
+      </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="42"/>
@@ -3818,13 +3840,25 @@
       <c r="BK24" s="42"/>
       <c r="BL24" s="42"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="56"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
+      <c r="B25" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="100">
+        <v>0</v>
+      </c>
+      <c r="E25" s="101">
+        <f>F24+1</f>
+        <v>44530</v>
+      </c>
+      <c r="F25" s="101">
+        <f>E25</f>
+        <v>44530</v>
+      </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="42"/>
@@ -3884,13 +3918,25 @@
       <c r="BK25" s="42"/>
       <c r="BL25" s="42"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="56"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
+      <c r="B26" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="100">
+        <v>0</v>
+      </c>
+      <c r="E26" s="101">
+        <f>F25+1</f>
+        <v>44531</v>
+      </c>
+      <c r="F26" s="101">
+        <f>E26+1</f>
+        <v>44532</v>
+      </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="42"/>
@@ -3950,13 +3996,25 @@
       <c r="BK26" s="42"/>
       <c r="BL26" s="42"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="56"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
+      <c r="B27" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="100">
+        <v>0</v>
+      </c>
+      <c r="E27" s="101">
+        <f>F26</f>
+        <v>44532</v>
+      </c>
+      <c r="F27" s="101">
+        <f>E27+12</f>
+        <v>44544</v>
+      </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="42"/>
@@ -4016,12 +4074,12 @@
       <c r="BK27" s="42"/>
       <c r="BL27" s="42"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C28" s="73"/>
       <c r="D28" s="27"/>
@@ -4089,25 +4147,26 @@
       <c r="BK28" s="42"/>
       <c r="BL28" s="42"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56"/>
       <c r="B29" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="30">
+        <v>0</v>
+      </c>
       <c r="E29" s="66">
-        <f>E9+15</f>
-        <v>44481</v>
-      </c>
-      <c r="F29" s="66">
-        <f>E29+5</f>
-        <v>44486</v>
-      </c>
+        <f>F27</f>
+        <v>44544</v>
+      </c>
+      <c r="F29" s="66"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="17">
+      <c r="H29" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
@@ -4166,25 +4225,26 @@
       <c r="BK29" s="42"/>
       <c r="BL29" s="42"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56"/>
       <c r="B30" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="30">
+        <v>0</v>
+      </c>
       <c r="E30" s="66">
-        <f>F29+1</f>
-        <v>44487</v>
-      </c>
-      <c r="F30" s="66">
-        <f>E30+4</f>
-        <v>44491</v>
-      </c>
+        <f>F29</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="66"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="17">
+      <c r="H30" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
@@ -4243,25 +4303,26 @@
       <c r="BK30" s="42"/>
       <c r="BL30" s="42"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56"/>
       <c r="B31" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="30">
+        <v>0</v>
+      </c>
       <c r="E31" s="66">
-        <f>E30+5</f>
-        <v>44492</v>
-      </c>
-      <c r="F31" s="66">
-        <f>E31+5</f>
-        <v>44497</v>
-      </c>
+        <f>F30</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="66"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="17">
+      <c r="H31" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I31" s="42"/>
       <c r="J31" s="42"/>
@@ -4320,25 +4381,26 @@
       <c r="BK31" s="42"/>
       <c r="BL31" s="42"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56"/>
       <c r="B32" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="30"/>
+      <c r="C32" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="30">
+        <v>0</v>
+      </c>
       <c r="E32" s="66">
-        <f>F31+1</f>
-        <v>44498</v>
-      </c>
-      <c r="F32" s="66">
-        <f>E32+4</f>
-        <v>44502</v>
-      </c>
+        <f>F31</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="66"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="17">
+      <c r="H32" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I32" s="42"/>
       <c r="J32" s="42"/>
@@ -4397,25 +4459,26 @@
       <c r="BK32" s="42"/>
       <c r="BL32" s="42"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56"/>
       <c r="B33" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="30">
+        <v>0</v>
+      </c>
       <c r="E33" s="66">
-        <f>E31</f>
-        <v>44492</v>
-      </c>
-      <c r="F33" s="66">
-        <f>E33+4</f>
-        <v>44496</v>
-      </c>
+        <f>F32</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="66"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="17">
+      <c r="H33" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I33" s="42"/>
       <c r="J33" s="42"/>
@@ -4474,9 +4537,9 @@
       <c r="BK33" s="42"/>
       <c r="BL33" s="42"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>99</v>
@@ -4547,23 +4610,19 @@
       <c r="BK34" s="42"/>
       <c r="BL34" s="42"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="56"/>
       <c r="B35" s="81" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="35"/>
-      <c r="E35" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="67" t="s">
-        <v>30</v>
-      </c>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="17" t="e">
+      <c r="H35" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I35" s="42"/>
       <c r="J35" s="42"/>
@@ -4622,23 +4681,19 @@
       <c r="BK35" s="42"/>
       <c r="BL35" s="42"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="56"/>
       <c r="B36" s="81" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="35"/>
-      <c r="E36" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="67" t="s">
-        <v>30</v>
-      </c>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="17" t="e">
+      <c r="H36" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I36" s="42"/>
       <c r="J36" s="42"/>
@@ -4697,23 +4752,19 @@
       <c r="BK36" s="42"/>
       <c r="BL36" s="42"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="56"/>
       <c r="B37" s="81" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="76"/>
       <c r="D37" s="35"/>
-      <c r="E37" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="67" t="s">
-        <v>30</v>
-      </c>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="17" t="e">
+      <c r="H37" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
@@ -4772,23 +4823,19 @@
       <c r="BK37" s="42"/>
       <c r="BL37" s="42"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="56"/>
       <c r="B38" s="81" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="76"/>
       <c r="D38" s="35"/>
-      <c r="E38" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="67" t="s">
-        <v>30</v>
-      </c>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="17" t="e">
+      <c r="H38" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
@@ -4847,23 +4894,19 @@
       <c r="BK38" s="42"/>
       <c r="BL38" s="42"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="56"/>
       <c r="B39" s="81" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="76"/>
       <c r="D39" s="35"/>
-      <c r="E39" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="67" t="s">
-        <v>30</v>
-      </c>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="17" t="e">
+      <c r="H39" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I39" s="42"/>
       <c r="J39" s="42"/>
@@ -4922,10 +4965,10 @@
       <c r="BK39" s="42"/>
       <c r="BL39" s="42"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="56"/>
       <c r="B40" s="97" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C40" s="94"/>
       <c r="D40" s="95"/>
@@ -4990,10 +5033,10 @@
       <c r="BK40" s="42"/>
       <c r="BL40" s="42"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="56"/>
       <c r="B41" s="90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="91"/>
       <c r="D41" s="92"/>
@@ -5058,10 +5101,10 @@
       <c r="BK41" s="42"/>
       <c r="BL41" s="42"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="56"/>
       <c r="B42" s="90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="91"/>
       <c r="D42" s="92"/>
@@ -5126,10 +5169,10 @@
       <c r="BK42" s="42"/>
       <c r="BL42" s="42"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="56"/>
       <c r="B43" s="90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="91"/>
       <c r="D43" s="92"/>
@@ -5194,10 +5237,10 @@
       <c r="BK43" s="42"/>
       <c r="BL43" s="42"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="56"/>
       <c r="B44" s="90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" s="91"/>
       <c r="D44" s="92"/>
@@ -5262,10 +5305,10 @@
       <c r="BK44" s="42"/>
       <c r="BL44" s="42"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="56"/>
       <c r="B45" s="90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="91"/>
       <c r="D45" s="92"/>
@@ -5330,10 +5373,10 @@
       <c r="BK45" s="42"/>
       <c r="BL45" s="42"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="56"/>
       <c r="B46" s="90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="91"/>
       <c r="D46" s="92"/>
@@ -5398,10 +5441,10 @@
       <c r="BK46" s="42"/>
       <c r="BL46" s="42"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="56"/>
       <c r="B47" s="90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C47" s="91"/>
       <c r="D47" s="92"/>
@@ -5466,10 +5509,10 @@
       <c r="BK47" s="42"/>
       <c r="BL47" s="42"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="56"/>
       <c r="B48" s="90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C48" s="91"/>
       <c r="D48" s="92"/>
@@ -5534,9 +5577,9 @@
       <c r="BK48" s="42"/>
       <c r="BL48" s="42"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" s="82"/>
       <c r="C49" s="77"/>
@@ -5605,9 +5648,9 @@
       <c r="BK49" s="42"/>
       <c r="BL49" s="42"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" s="36" t="s">
         <v>5</v>
@@ -5678,18 +5721,23 @@
       <c r="BK50" s="44"/>
       <c r="BL50" s="44"/>
     </row>
-    <row r="51" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="14"/>
       <c r="F52" s="58"/>
     </row>
-    <row r="53" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -5697,11 +5745,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D18 D21 D23:D50">
     <cfRule type="dataBar" priority="17">
@@ -5718,15 +5761,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL50">
-    <cfRule type="expression" dxfId="2" priority="36">
+    <cfRule type="expression" dxfId="6" priority="36">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL50">
-    <cfRule type="expression" dxfId="1" priority="30">
+    <cfRule type="expression" dxfId="5" priority="30">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="31" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5783,9 +5826,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F30:F31 E31" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -5863,38 +5903,38 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="70.28515625" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="70.33203125" customWidth="1"/>
+    <col min="5" max="5" width="45.88671875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="C1" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="D1" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="E1" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="84" t="s">
-        <v>51</v>
-      </c>
       <c r="F1" s="84" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="83">
         <v>44466</v>
@@ -5903,19 +5943,19 @@
         <v>44472</v>
       </c>
       <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
         <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
       </c>
       <c r="F2" s="85">
         <f t="shared" ref="F2" si="0">4+2+5</f>
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="83">
         <v>44473</v>
@@ -5924,16 +5964,16 @@
         <v>44479</v>
       </c>
       <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
       <c r="F3" s="85"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="83">
         <v>44480</v>
@@ -5943,9 +5983,9 @@
       </c>
       <c r="F4" s="85"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="83">
         <v>44487</v>
@@ -5955,9 +5995,9 @@
       </c>
       <c r="F5" s="85"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="83">
         <v>44494</v>
@@ -5967,9 +6007,9 @@
       </c>
       <c r="F6" s="85"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="83">
         <v>44501</v>
@@ -5979,9 +6019,9 @@
       </c>
       <c r="F7" s="85"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="83">
         <v>44508</v>
@@ -5991,9 +6031,9 @@
       </c>
       <c r="F8" s="85"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="83">
         <v>44515</v>
@@ -6003,9 +6043,9 @@
       </c>
       <c r="F9" s="85"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="83">
         <v>44522</v>
@@ -6015,9 +6055,9 @@
       </c>
       <c r="F10" s="85"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="83">
         <v>44529</v>
@@ -6027,9 +6067,9 @@
       </c>
       <c r="F11" s="85"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="83">
         <v>44536</v>
@@ -6039,9 +6079,9 @@
       </c>
       <c r="F12" s="85"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="83">
         <v>44543</v>
@@ -6051,9 +6091,9 @@
       </c>
       <c r="F13" s="85"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="83">
         <v>44550</v>
@@ -6063,9 +6103,9 @@
       </c>
       <c r="F14" s="85"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="83">
         <v>44557</v>
@@ -6075,9 +6115,9 @@
       </c>
       <c r="F15" s="85"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="83">
         <v>44564</v>
@@ -6087,9 +6127,9 @@
       </c>
       <c r="F16" s="85"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="83">
         <v>44571</v>
@@ -6099,9 +6139,9 @@
       </c>
       <c r="F17" s="85"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="83">
         <v>44578</v>
@@ -6111,9 +6151,9 @@
       </c>
       <c r="F18" s="85"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E20" s="86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="87">
         <f>SUM(Table1[Total Hours])</f>
@@ -6136,86 +6176,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="46" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="87.109375" style="46" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="47"/>
     </row>
-    <row r="3" spans="1:2" s="52" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="52" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="53"/>
     </row>
-    <row r="4" spans="1:2" s="49" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" s="49" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="46" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="46" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="55" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="49" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" s="49" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A8" s="50" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="46" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="46" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="49" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" s="49" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A11" s="50" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="46" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="46" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="49" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" s="49" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A14" s="50" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">
         <v>21</v>
       </c>
